--- a/data/input/absenteeism_data_35.xlsx
+++ b/data/input/absenteeism_data_35.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80496</v>
+        <v>72209</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henrique Pires</t>
+          <t>Lavínia Fernandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,85 +494,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>4641.88</v>
+        <v>8413.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>83655</v>
+        <v>32042</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marina Souza</t>
+          <t>João Lucas Nogueira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>6143.28</v>
+        <v>9681.799999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>31577</v>
+        <v>59391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Almeida</t>
+          <t>Isabella Teixeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45105</v>
       </c>
       <c r="G4" t="n">
-        <v>5145.92</v>
+        <v>3440.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73748</v>
+        <v>78666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pietra Martins</t>
+          <t>Diego da Paz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>4210.26</v>
+        <v>7687.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>83304</v>
+        <v>63252</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Daniela Campos</t>
+          <t>Dr. Luiz Gustavo Costela</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45101</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>3483.04</v>
+        <v>9639.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32699</v>
+        <v>86066</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Fernanda Teixeira</t>
+          <t>Kaique Carvalho</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,126 +642,126 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45082</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>8653.889999999999</v>
+        <v>7558.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>60652</v>
+        <v>99234</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Silva</t>
+          <t>Guilherme Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45105</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>5033.15</v>
+        <v>10144.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10174</v>
+        <v>63286</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Augusto Barbosa</t>
+          <t>Ana Luiza Novaes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45097</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>3763.98</v>
+        <v>10309.35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>37533</v>
+        <v>14847</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Gustavo Henrique Farias</t>
+          <t>João Guilherme Silveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>4532.36</v>
+        <v>12230.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>60291</v>
+        <v>42578</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Miguel Cardoso</t>
+          <t>Clara Moreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45088</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>4227.03</v>
+        <v>6661.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_35.xlsx
+++ b/data/input/absenteeism_data_35.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>72209</v>
+        <v>42867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lavínia Fernandes</t>
+          <t>Maria Vitória Sales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,114 +494,114 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45090</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>8413.83</v>
+        <v>4807.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32042</v>
+        <v>38108</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Lucas Nogueira</t>
+          <t>Gustavo Henrique Cavalcanti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45104</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>9681.799999999999</v>
+        <v>10190.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>59391</v>
+        <v>95540</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabella Teixeira</t>
+          <t>Rebeca Alves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45105</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>3440.63</v>
+        <v>11974.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>78666</v>
+        <v>41703</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diego da Paz</t>
+          <t>Sophie Peixoto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>7687.2</v>
+        <v>11709.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>63252</v>
+        <v>86984</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Luiz Gustavo Costela</t>
+          <t>Dra. Sarah Nascimento</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,109 +610,109 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>9639.27</v>
+        <v>3087.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>86066</v>
+        <v>1462</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kaique Carvalho</t>
+          <t>Stephany Souza</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45086</v>
+        <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>7558.46</v>
+        <v>3109.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99234</v>
+        <v>62672</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Guilherme Moraes</t>
+          <t>Thiago da Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45089</v>
       </c>
       <c r="G8" t="n">
-        <v>10144.95</v>
+        <v>10025.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63286</v>
+        <v>19849</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Luiza Novaes</t>
+          <t>Calebe Oliveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>10309.35</v>
+        <v>8600.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14847</v>
+        <v>36114</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Guilherme Silveira</t>
+          <t>Rafaela das Neves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,31 +722,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45104</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>12230.21</v>
+        <v>7427.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>42578</v>
+        <v>80558</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Clara Moreira</t>
+          <t>Sophie da Conceição</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>6661.4</v>
+        <v>10864.8</v>
       </c>
     </row>
   </sheetData>
